--- a/gym_routine_master.xlsx
+++ b/gym_routine_master.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[90.0, 87.5, 85.0, 82.5, 80.0]</t>
+          <t>[90.0, 90.0, 90.0, 90.0, 90.0]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
